--- a/OpenCart_Test Case.xlsx
+++ b/OpenCart_Test Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MT project_Opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9E17FF-34FB-4271-9691-AF55DA868E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC69FF-90D7-44DA-8B70-806CF6373A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" activeTab="4" xr2:uid="{330BF1F3-EE60-498A-92EE-48E3DE53868E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" activeTab="5" xr2:uid="{330BF1F3-EE60-498A-92EE-48E3DE53868E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="LoginPage" sheetId="3" r:id="rId3"/>
     <sheet name="ForgotPassword" sheetId="6" r:id="rId4"/>
     <sheet name="Logout" sheetId="4" r:id="rId5"/>
+    <sheet name="Search" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="386">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1415,12 +1416,49 @@
     <t>(TS_004)
 Validate the functionality of  Logout</t>
   </si>
+  <si>
+    <t>(TS_005)
+Validate the functionality of  Search</t>
+  </si>
+  <si>
+    <t>TC_SF_001</t>
+  </si>
+  <si>
+    <t>TC_SF_002</t>
+  </si>
+  <si>
+    <t>TC_SF_003</t>
+  </si>
+  <si>
+    <t>TC_SF_004</t>
+  </si>
+  <si>
+    <t>TC_SF_005</t>
+  </si>
+  <si>
+    <t>TC_SF_006</t>
+  </si>
+  <si>
+    <t>TC_SF_007</t>
+  </si>
+  <si>
+    <t>TC_SF_008</t>
+  </si>
+  <si>
+    <t>TC_SF_009</t>
+  </si>
+  <si>
+    <t>TC_SF_010</t>
+  </si>
+  <si>
+    <t>TC_SF_011</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1593,6 +1631,16 @@
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF080EFC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1821,12 +1869,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,9 +1896,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1868,11 +1907,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2197,7 +2245,7 @@
   <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,55 +2262,55 @@
       <c r="B2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="54"/>
     </row>
     <row r="6" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="53">
         <v>45420</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="53">
         <v>45426</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="54"/>
     </row>
     <row r="10" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
@@ -2293,7 +2341,7 @@
       <c r="C12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="45" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -2307,7 +2355,7 @@
       <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -2321,7 +2369,7 @@
       <c r="C14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="45" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -2335,7 +2383,7 @@
       <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="52" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -2349,7 +2397,7 @@
       <c r="C16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="52" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -2648,6 +2696,7 @@
     <hyperlink ref="D13" location="LoginPage!A1" display="Validate the functionality of  Login " xr:uid="{6CB0A6DA-BD9D-4539-A9D9-8235BE43607D}"/>
     <hyperlink ref="D14" location="ForgotPassword!A1" display="Validate the functionality of  Forgot Password" xr:uid="{D930BF43-BCD8-4BCB-8431-B1C01B830090}"/>
     <hyperlink ref="D15" location="Logout!A1" display="Validate the functionality of  Logout" xr:uid="{247413DA-8DCA-4954-9CF2-2989B762393A}"/>
+    <hyperlink ref="D16" location="Search!A1" display="Validate the functionality of  Search" xr:uid="{B4EB2F35-F84A-440E-87FD-A03B335E6FB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2682,19 +2731,19 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="53">
         <v>45420</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="54"/>
       <c r="J3" s="26" t="s">
         <v>133</v>
       </c>
@@ -2709,10 +2758,10 @@
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <v>45426</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="54"/>
       <c r="J4" s="26"/>
       <c r="K4" s="28"/>
       <c r="L4" s="27"/>
@@ -3298,28 +3347,28 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="53">
         <v>45420</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <v>45426</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="32" t="s">
@@ -3328,7 +3377,7 @@
       <c r="K5" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="38" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3909,9 +3958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342B06B7-5D39-473E-BAA2-33C73CF21AA0}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3932,28 +3979,28 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="53">
         <v>45420</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <v>45426</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="54"/>
       <c r="J4" s="32" t="s">
         <v>133</v>
       </c>
@@ -3964,38 +4011,38 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="2:12" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4003,7 +4050,7 @@
       <c r="B7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D7" s="37" t="s">
@@ -4030,7 +4077,7 @@
       <c r="B8" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D8" s="37" t="s">
@@ -4057,7 +4104,7 @@
       <c r="B9" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D9" s="37" t="s">
@@ -4084,7 +4131,7 @@
       <c r="B10" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D10" s="37" t="s">
@@ -4111,7 +4158,7 @@
       <c r="B11" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D11" s="37" t="s">
@@ -4138,7 +4185,7 @@
       <c r="B12" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D12" s="37" t="s">
@@ -4165,7 +4212,7 @@
       <c r="B13" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -4192,7 +4239,7 @@
       <c r="B14" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -4219,7 +4266,7 @@
       <c r="B15" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D15" s="37" t="s">
@@ -4246,7 +4293,7 @@
       <c r="B16" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D16" s="37" t="s">
@@ -4273,7 +4320,7 @@
       <c r="B17" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D17" s="37" t="s">
@@ -4300,7 +4347,7 @@
       <c r="B18" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D18" s="37" t="s">
@@ -4327,7 +4374,7 @@
       <c r="B19" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -4354,7 +4401,7 @@
       <c r="B20" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D20" s="37" t="s">
@@ -4381,7 +4428,7 @@
       <c r="B21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D21" s="37" t="s">
@@ -4408,7 +4455,7 @@
       <c r="B22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D22" s="37" t="s">
@@ -4423,7 +4470,7 @@
       <c r="G22" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>289</v>
       </c>
       <c r="I22" s="12"/>
@@ -4437,7 +4484,7 @@
       <c r="B23" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D23" s="37" t="s">
@@ -4450,21 +4497,21 @@
         <v>318</v>
       </c>
       <c r="G23" s="33"/>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="I23" s="41"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -4477,21 +4524,21 @@
         <v>319</v>
       </c>
       <c r="G24" s="33"/>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="I24" s="41"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="2:12" ht="63" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D25" s="37" t="s">
@@ -4504,21 +4551,21 @@
         <v>320</v>
       </c>
       <c r="G25" s="33"/>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="I25" s="41"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="2:12" ht="63" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D26" s="37" t="s">
@@ -4531,21 +4578,21 @@
         <v>298</v>
       </c>
       <c r="G26" s="33"/>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="I26" s="41"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="47" t="s">
         <v>372</v>
       </c>
       <c r="D27" s="37" t="s">
@@ -4558,15 +4605,15 @@
         <v>302</v>
       </c>
       <c r="G27" s="33"/>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="48" t="s">
+      <c r="I27" s="39"/>
+      <c r="J27" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4588,15 +4635,496 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0FFD1E-0625-4FE2-8C18-305942F329A0}">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="51" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="51" style="20" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="53">
+        <v>45420</v>
+      </c>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="53">
+        <v>45426</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="J4" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="2:12" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="G14" s="48"/>
+      <c r="H14" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="2:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J4" location="ForgotPassword!A1" display="&lt;&lt;Previous" xr:uid="{6E7823D9-5DE6-4895-95C8-D9BD05A8E4C4}"/>
+    <hyperlink ref="K4" location="'Test Scenarios'!A1" display="&lt;&lt;Back To Test Scenarios" xr:uid="{52680C2C-E725-4DA3-96B1-EC6D0D5CDBD1}"/>
+    <hyperlink ref="L4" location="Search!A1" display="Next &gt;&gt;" xr:uid="{4905EE43-F293-4213-95B9-05D829F6A4CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6672FA3B-4779-4B82-838B-1E206B75A4A7}">
+  <dimension ref="B2:L42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="51" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" customWidth="1"/>
     <col min="6" max="6" width="50.140625" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
@@ -4611,28 +5139,28 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="53">
         <v>45420</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <v>45426</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="54"/>
       <c r="J4" s="32" t="s">
         <v>133</v>
       </c>
@@ -4643,49 +5171,49 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B6" s="42" t="s">
+    <row r="6" spans="2:12" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D7" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>325</v>
       </c>
       <c r="E7" s="37" t="s">
@@ -4694,7 +5222,7 @@
       <c r="F7" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="G7" s="51"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="37" t="s">
         <v>327</v>
       </c>
@@ -4707,12 +5235,12 @@
     </row>
     <row r="8" spans="2:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D8" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>329</v>
       </c>
       <c r="E8" s="37" t="s">
@@ -4721,7 +5249,7 @@
       <c r="F8" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="37" t="s">
         <v>327</v>
       </c>
@@ -4734,12 +5262,12 @@
     </row>
     <row r="9" spans="2:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D9" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>332</v>
       </c>
       <c r="E9" s="37" t="s">
@@ -4748,7 +5276,7 @@
       <c r="F9" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="G9" s="51"/>
+      <c r="G9" s="48"/>
       <c r="H9" s="37" t="s">
         <v>333</v>
       </c>
@@ -4761,12 +5289,12 @@
     </row>
     <row r="10" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>335</v>
       </c>
       <c r="E10" s="37" t="s">
@@ -4775,7 +5303,7 @@
       <c r="F10" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="37" t="s">
         <v>336</v>
       </c>
@@ -4788,12 +5316,12 @@
     </row>
     <row r="11" spans="2:12" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>338</v>
       </c>
       <c r="E11" s="37" t="s">
@@ -4802,7 +5330,7 @@
       <c r="F11" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="G11" s="51"/>
+      <c r="G11" s="48"/>
       <c r="H11" s="37" t="s">
         <v>340</v>
       </c>
@@ -4815,12 +5343,12 @@
     </row>
     <row r="12" spans="2:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D12" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>342</v>
       </c>
       <c r="E12" s="37" t="s">
@@ -4829,7 +5357,7 @@
       <c r="F12" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="37" t="s">
         <v>344</v>
       </c>
@@ -4842,12 +5370,12 @@
     </row>
     <row r="13" spans="2:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D13" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>346</v>
       </c>
       <c r="E13" s="37" t="s">
@@ -4856,7 +5384,7 @@
       <c r="F13" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="G13" s="51"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="37" t="s">
         <v>348</v>
       </c>
@@ -4869,12 +5397,12 @@
     </row>
     <row r="14" spans="2:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D14" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>350</v>
       </c>
       <c r="E14" s="37" t="s">
@@ -4883,7 +5411,7 @@
       <c r="F14" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="G14" s="51"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="37" t="s">
         <v>351</v>
       </c>
@@ -4896,12 +5424,12 @@
     </row>
     <row r="15" spans="2:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D15" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>353</v>
       </c>
       <c r="E15" s="37" t="s">
@@ -4910,7 +5438,7 @@
       <c r="F15" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="G15" s="51"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="37" t="s">
         <v>355</v>
       </c>
@@ -4923,12 +5451,12 @@
     </row>
     <row r="16" spans="2:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D16" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>357</v>
       </c>
       <c r="E16" s="37" t="s">
@@ -4937,25 +5465,25 @@
       <c r="F16" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="37" t="s">
         <v>358</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="D17" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>360</v>
       </c>
       <c r="E17" s="37" t="s">
@@ -4964,7 +5492,7 @@
       <c r="F17" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="37" t="s">
         <v>361</v>
       </c>
@@ -5056,10 +5584,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" location="ForgotPassword!A1" display="&lt;&lt;Previous" xr:uid="{6E7823D9-5DE6-4895-95C8-D9BD05A8E4C4}"/>
-    <hyperlink ref="K4" location="'Test Scenarios'!A1" display="&lt;&lt;Back To Test Scenarios" xr:uid="{52680C2C-E725-4DA3-96B1-EC6D0D5CDBD1}"/>
-    <hyperlink ref="L4" location="Logout!A1" display="Next &gt;&gt;" xr:uid="{4905EE43-F293-4213-95B9-05D829F6A4CC}"/>
+    <hyperlink ref="J4" location="Logout!A1" display="&lt;&lt;Previous" xr:uid="{6020A22E-173C-45EC-95B9-1F72037DF68C}"/>
+    <hyperlink ref="K4" location="'Test Scenarios'!A1" display="&lt;&lt;Back To Test Scenarios" xr:uid="{7B28BCCB-23BB-492B-8112-AEB425D5273B}"/>
+    <hyperlink ref="L4" location="Logout!A1" display="Next &gt;&gt;" xr:uid="{4F5810C4-4260-4149-9599-B15AA23EA8D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OpenCart_Test Case.xlsx
+++ b/OpenCart_Test Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MT project_Opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFC69FF-90D7-44DA-8B70-806CF6373A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F18DE-652A-41B5-BEA9-0606649A0BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" activeTab="5" xr2:uid="{330BF1F3-EE60-498A-92EE-48E3DE53868E}"/>
   </bookViews>
@@ -5117,7 +5117,7 @@
   <dimension ref="B2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OpenCart_Test Case.xlsx
+++ b/OpenCart_Test Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MT project_Opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F18DE-652A-41B5-BEA9-0606649A0BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560E2665-0B82-4784-A349-F5D8FECC26E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" activeTab="5" xr2:uid="{330BF1F3-EE60-498A-92EE-48E3DE53868E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="779" activeTab="6" xr2:uid="{330BF1F3-EE60-498A-92EE-48E3DE53868E}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ForgotPassword" sheetId="6" r:id="rId4"/>
     <sheet name="Logout" sheetId="4" r:id="rId5"/>
     <sheet name="Search" sheetId="7" r:id="rId6"/>
+    <sheet name="ProductDisplayPage " sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="537">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1453,12 +1454,608 @@
   <si>
     <t>TC_SF_011</t>
   </si>
+  <si>
+    <t>TC_PDP_001</t>
+  </si>
+  <si>
+    <t>(TS_007)
+Product Display Page</t>
+  </si>
+  <si>
+    <t>Validate the Thumbnails of the Product displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the main bigger sized Thumbnail image displayed on the 'Product Display Page' (Validate ER-1)
+5. Click on '&lt;' and '&gt;' options (Validate ER-2)
+6. Click on 'x' option or press 'ESC' keyboard key when the thumbnails are displayed in Light box view (Validate ER-3)
+7. Click on the normal sized Thumbnail images and repeat the steps 5 to 6 (Validate ER-4)</t>
+  </si>
+  <si>
+    <t>Product Name: iMac</t>
+  </si>
+  <si>
+    <t>1. Light box view of the main Thumnail image should be displayed with options to view the previous and next Thumnail images in Light box view.
+2. User should be able to navigate to other thumbnail images in the Light box view 
+3. Light box view should close and the focus should go to the Product Display Page.
+4 Light box view of the selected Thumnail image should be displayed with options to view the previous and next Thumnail images in Light box view.  User should be able to navigate to other thumbnail images in the Light box view. Light box view should close and the focus should go to the Product Display Page.</t>
+  </si>
+  <si>
+    <t>TC_PDP_002</t>
+  </si>
+  <si>
+    <t>Validate that Product Name, Brand and Product Code are displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Product Name, Brand and Product Code in the displayed Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Proper Product Name, Brand and Product Code should be displayed for the different types of Products in the Product Display Page.</t>
+  </si>
+  <si>
+    <t>TC_PDP_003</t>
+  </si>
+  <si>
+    <t>Validate the availabilty status of the Product in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the different availability status of the Products in the displayed Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Proper avaialabilty statuses like In Stock, Out of Stock and Limited Stock should be displayed in the Availabilty section of the Product Display Page for the different types of Products.</t>
+  </si>
+  <si>
+    <t>TC_PDP_004</t>
+  </si>
+  <si>
+    <t>Validate the Price of the Product with and without tax is displayed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Price with tax and Price Ex Tax in the displayed Product Display Page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper price with and without tax should be displayed for the different types of Products in the Product Display Page.</t>
+  </si>
+  <si>
+    <t>TC_PDP_005</t>
+  </si>
+  <si>
+    <t>Validate the default quanity for the Product is displayed as 1 in the Product Display Page, when there is no minimum quantity set for the Product</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field, which has no minimum quanitity set - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Qty text field in the Product Display Page (Validate ER-1)
+5. Update the quantity by increasing it to more than one and click on 'Add to Cart' button (Validate ER-2)</t>
+  </si>
+  <si>
+    <t>1. Default quantity should be displayed 1 for this product which has not minimum quantity set
+2. Quantity should get updated accordingly and the User should be able to add the Product to cart without any issues.</t>
+  </si>
+  <si>
+    <t>TC_PDP_006</t>
+  </si>
+  <si>
+    <t>Validate the negative quantity or zero quantity or null quantity should not be allowed in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field, which has no minimum quanitity set - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Qty text field in the Product Display Page
+5. Update the quantity in the Qty text feild by providing a negative number or zero number or null quanitity and click on 'Add to Cart' button  (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. A field level message - 'Quantity should be a positive number' or 'Quantity cannot be zero, null or negative' should be displayed under the Qty text field</t>
+  </si>
+  <si>
+    <t>TC_PDP_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the Product having the minimum quanitity set </t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field, which has no minimum quanitity set - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Qty text field in the Product Display Page (Validate ER-1)
+5. Fill all the mandatory fields in the Product Display Page of this product and reduce below the minimum quantity in the Qty text feild and click on 'Add to Cart' button and navigate to shopping cart page (Validate ER-2)
+6. Increase the Quantity in the Qty field to more than the minimum quantity and click on 'Add to Cart' button (Validate ER-3)</t>
+  </si>
+  <si>
+    <t>Product Name: Apple Cinema 30"</t>
+  </si>
+  <si>
+    <t>1. Default quantity in Qty field should be displayed as minimum quanity set for this product (This product has minimum quanity set as 2). Also, the information text - ' This product has a minimum quantity of 2' should be displayed under the 'Add to Cart' button 
+2. Warning message stating - 'Minimum order amount for Apple Cinema 30" is 2!'
+3. Product should be added to the cart with the given quantity without any problems.</t>
+  </si>
+  <si>
+    <t>TC_PDP_008</t>
+  </si>
+  <si>
+    <t>Validate the description of the Product in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Description tab of the Product in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Correct Description of the product without any spelling or grammatical mistakes should be displayed for different types of Products.</t>
+  </si>
+  <si>
+    <t>TC_PDP_009</t>
+  </si>
+  <si>
+    <t>Validate the specifications of the Product in the Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Specification tab of the Product in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Correct Specifications of the product without any spelling or grammatrical mistakes should be displayed for different types of Products.</t>
+  </si>
+  <si>
+    <t>TC_PDP_010</t>
+  </si>
+  <si>
+    <t>Validate the User is able to write a review for the Product from the 'Reviews' tab of Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Reviews tab of the Product in the displayed 'Product Display' page
+5. Enter your name into the 'Your Name' text field
+6. Enter review text into the 'Your Review' text are field
+7. Select any radio button to give the rating
+8. Click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Success message with text - 'Thank you for your review. It has been submitted to the webmaster for approval.' should be displayed. This review should be displayed under this 'Reviews' tab once the webmaster approves it.</t>
+  </si>
+  <si>
+    <t>TC_PDP_011</t>
+  </si>
+  <si>
+    <t>Validate the 'Reviews' tab when there are no reviews or zero reviews added</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field for which there are no existing reviews - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Reviews(0) tab of the Product in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. 'There are no reviews for this product.' text should be displayed under the 'Reviews' tab</t>
+  </si>
+  <si>
+    <t>TC_PDP_012</t>
+  </si>
+  <si>
+    <t>Validate all the fields in the 'Review' tab are mandatory fields</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the Reviews tab of the Product in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. All the fields in the Reviews tab should be mandatory fields.</t>
+  </si>
+  <si>
+    <t>TC_PDP_013</t>
+  </si>
+  <si>
+    <t>Validate 'Write a review' link under 'Add to Cart' button on the 'Product Display' page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Write a review' link under 'Add to Cart' button of the 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. 'Reviews' tab in the Product Display page should come to the focus.</t>
+  </si>
+  <si>
+    <t>TC_PDP_014</t>
+  </si>
+  <si>
+    <t>Validate average of the user reviews should be dispalyed under the 'Add to Cart' button of the Product Display page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the average and number of reviews under the 'Add to Cart' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Correct average review and the number of reviews count should be displayed under the 'Add to Cart' button</t>
+  </si>
+  <si>
+    <t>TC_PDP_015</t>
+  </si>
+  <si>
+    <t>Validate the count of reviews should be displayed in the 'Reviews' tab label of the Product Display page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the count of reviews in the 'Reviews' tab lable in the Product Display page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Correct count of reviews should be displayed in the 'Reviews' tab label of the Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_016</t>
+  </si>
+  <si>
+    <t>Validate 'reviews' link under the 'Add to Cart' button of Product Display Page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the 'x reviews' link in the Product Display page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Reviews given the User so far should be displayed under the 'Reviews' tab of the Product Display Page.</t>
+  </si>
+  <si>
+    <t>TC_PDP_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate submitting a review without filling the mandatory fields </t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Select the Reviews tab of the Product in the displayed 'Product Display' page 
+5. Don't provide Name, Your Review and Ratings and click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper warning messages informing the User to fill the mandatory fields to submit the review should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_PDP_018</t>
+  </si>
+  <si>
+    <t>Validate the review text given while writing is accepted according to the specified number of characters</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Select the Reviews tab of the Product in the displayed 'Product Display' page 
+5. Provide Name and Ratings
+6. Check whether a proper warning message is displayed on providing the review text which is not according to the specified range of characters (i.e. 25 to 100 charactres) and click on 'Continue' button (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper warning message with the text - 'Warning: Review Text must be between 25 and 1000 characters!' should be displayed</t>
+  </si>
+  <si>
+    <t>TC_PDP_019</t>
+  </si>
+  <si>
+    <t>Validate adding the product to 'Wish List' from the Product Display page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and Login</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Wish List' option in the displayed 'Product Display' page (Validate ER-1)
+5. Click on 'wish list' link in the success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Success message with text - 'Success: You have added Product Name to your wish list!' is displayed
+2. User should be taken to 'Wish List page and the product added is displayed in the 'Wish List' page
+</t>
+  </si>
+  <si>
+    <t>TC_PDP_020</t>
+  </si>
+  <si>
+    <t>Validate adding the product for comparision from the Product Display page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL </t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Compare this Product' option in the displayed 'Product Display' page (Validate ER-1)
+5. Click on 'product comparisoin' link in the success message (Validate ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Success message with text - ' Success: You have added Product Name to your product comparison!' is displayed
+2. User should be taken to 'Product Comparison' page and the product details are displayed in the page
+</t>
+  </si>
+  <si>
+    <t>TC_PDP_021</t>
+  </si>
+  <si>
+    <t>Validate proper options for liking, tweeting, sharing the Product Display page on social platforms</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the options for liking, tweeting, sharing the Product Display page on social platforms (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be able to like, tweet, share the Product Display page on social platforms</t>
+  </si>
+  <si>
+    <t>TC_PDP_022</t>
+  </si>
+  <si>
+    <t>Validate 'Related Products' section in Product Display page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on the 'Related Products' section in the displayed Product Display Page</t>
+  </si>
+  <si>
+    <t>1. User should see the Product displayed in the 'Related Products' section and is able ot click it and navigate to the Product Display Page of it.</t>
+  </si>
+  <si>
+    <t>TC_PDP_023</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product image in the 'Wish List' page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL and Login
+2.A product is added to the Wish List page</t>
+  </si>
+  <si>
+    <t>1. Click on the 'Wish List' header option
+2. Click on the Image icon displayed under the 'Image' section of the displayed 'Wish List' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be taken the Product Display page of the Product that is displayed in the 'Wish List' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_024</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in the 'Wish List' page</t>
+  </si>
+  <si>
+    <t>1. Click on the 'Wish List' header option
+2. Click on the Product Name link displayed under the 'Product Name' section of the displayed 'Wish List' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. User should be taken to the Product Display page of the Product that is displayed in the 'Wish List' page</t>
+  </si>
+  <si>
+    <t>TC_PDP_025</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in Success message on adding the Product to Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL and Login
+</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button
+5. Click on 'Product Name' link from the displayed success page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be taken to the Product Display page of the Product </t>
+  </si>
+  <si>
+    <t>TC_PDP_026</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Image in the 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button
+5. Click on 'shopping cart!' link from the displayed success page
+6. Click on the Product image from the displayed Shopping Cart page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_PDP_027</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in the 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button
+5. Click on 'shopping cart!' link from the displayed success page
+6. Click on the Product Name link from the displayed Shopping Cart page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_PDP_028</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in the 'Confirm Order' sectioon of the 'Checkout' page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Click on 'Add to Cart' button
+5. Click on 'Checkout' button in the displayed 'Shopping Cart' page
+6. Click on 'Continue' buttons and select any mandatory checkboxes until you reach the 'Confirm Order' section 
+7. Click on 'Product Name' link in the 'Confirm Order' section (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_PDP_029</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Image in the 'Cart' button toggle box</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on 'Add to Cart' option on the product that is displayed in the Search Results 
+4. Click on 'Cart' button which is in black color beside the search icon button on the top of the page
+5. Click on the Product Image in the displayed toggle box (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_PDP_030</t>
+  </si>
+  <si>
+    <t>Validate navigating to the Product Display page by using the Product Name link in the 'Cart' button toggle box</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on 'Add to Cart' option on the product that is displayed in the Search Results 
+4. Click on 'Cart' button which is in black color beside the search icon button on the top of the page
+5. Click on the Product Name link in the displayed toggle box (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>TC_PDP_031</t>
+  </si>
+  <si>
+    <t>Validate the Reward Points displayed in the Product Display page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the 'Reward Points' in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Correct rewards points should be displayed</t>
+  </si>
+  <si>
+    <t>TC_PDP_032</t>
+  </si>
+  <si>
+    <t>Validate the original price of the Product without offer in the Product Display page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the original price of the Product without offer in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Orignal price should be displayed as striked off</t>
+  </si>
+  <si>
+    <t>TC_PDP_033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the prices of the Product when purchased in bulk </t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the prices of the Product when purchased in bluk in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Prices when purchased in bluk should be displayed correctly for 10 products, 20 products and 30 products </t>
+  </si>
+  <si>
+    <t>TC_PDP_034</t>
+  </si>
+  <si>
+    <t>Validate all the extra available options in the Product Display page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check all the 'Available Options'  in the displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be able to select all the available options </t>
+  </si>
+  <si>
+    <t>TC_PDP_035</t>
+  </si>
+  <si>
+    <t>Validate Page Title, Page Heading and Page URL of the 'Product Display' page</t>
+  </si>
+  <si>
+    <t>1. Open the Application URL in any supported browser</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results
+4. Check the Page Title, Page Heading and Page URL of hte displayed 'Product Display' page (Validate ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Name: iMac
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Proper Page Title, Page Heading and Page URL of the 'Product Display' page are displayed. </t>
+  </si>
+  <si>
+    <t>TC_PDP_036</t>
+  </si>
+  <si>
+    <t>Validate the UI of 'Product Display' page</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field - &lt;Refer Test Data&gt;
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results (Validate ER-1)</t>
+  </si>
+  <si>
+    <t>1. Proper UI adhering to the UI checklist should be displayed for the complete 'Product Display' page functionality</t>
+  </si>
+  <si>
+    <t>TC_PDP_037</t>
+  </si>
+  <si>
+    <t>Validate the 'Product Display' page functionality in all the supported environments</t>
+  </si>
+  <si>
+    <t>1. 'Product  Display' page functionality should work correctly in all the supported environments</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1642,6 +2239,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1766,7 +2370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1910,6 +2514,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1919,15 +2526,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2245,7 +2879,7 @@
   <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,55 +2896,55 @@
       <c r="B2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="54">
         <v>45420</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="54">
         <v>45426</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="55"/>
     </row>
     <row r="10" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
@@ -2731,19 +3365,19 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="54">
         <v>45420</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="J3" s="26" t="s">
         <v>133</v>
       </c>
@@ -2758,10 +3392,10 @@
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="54">
         <v>45426</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="J4" s="26"/>
       <c r="K4" s="28"/>
       <c r="L4" s="27"/>
@@ -3347,28 +3981,28 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="54">
         <v>45420</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="54">
         <v>45426</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" s="32" t="s">
@@ -3979,28 +4613,28 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="54">
         <v>45420</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="54">
         <v>45426</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="J4" s="32" t="s">
         <v>133</v>
       </c>
@@ -4658,35 +5292,35 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="54">
         <v>45420</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="54">
         <v>45426</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="J4" s="32" t="s">
         <v>133</v>
       </c>
       <c r="K4" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="53" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5116,7 +5750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6672FA3B-4779-4B82-838B-1E206B75A4A7}">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -5139,28 +5773,28 @@
       <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="54">
         <v>45420</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="54">
         <v>45426</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="J4" s="32" t="s">
         <v>133</v>
       </c>
@@ -5592,4 +6226,1131 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54E5A05-21FD-4816-8B3C-F1E073420392}">
+  <dimension ref="B2:L43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="51" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="51" style="20" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="54">
+        <v>45420</v>
+      </c>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="54">
+        <v>45426</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="J4" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="57" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" s="57" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" s="57" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" s="57" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" s="57" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" s="57" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" s="57" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" s="57" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" s="57" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" s="57" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="2:12" s="57" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="2:12" s="57" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="2:12" s="57" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="2:12" s="57" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" s="57" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:12" s="57" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="2:12" s="57" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+      <c r="B34" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="2:12" s="57" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="2:12" s="57" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="2:12" s="57" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="2:12" s="57" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="2:12" s="57" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B41" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="2:12" s="57" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="2:12" s="57" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K7:K43">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+      <formula>NOT(ISERROR(SEARCH("NOT TESTED",K7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+      <formula>NOT(ISERROR(SEARCH("BLOCKED",K7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",K7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",K7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K43" xr:uid="{5D16E657-8E22-491E-9BC6-3713F2CDD623}">
+      <formula1>"PASS, FAIL, Blocked, Not Tested"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J4" location="Logout!A1" display="&lt;&lt;Previous" xr:uid="{A262B3C3-89B3-4043-B12D-AA11B42D0E86}"/>
+    <hyperlink ref="K4" location="'Test Scenarios'!A1" display="&lt;&lt;Back To Test Scenarios" xr:uid="{3981CFFC-9483-4D00-BF44-C4613C074BDB}"/>
+    <hyperlink ref="L4" location="Logout!A1" display="Next &gt;&gt;" xr:uid="{5BD16F8C-515A-4826-9942-0A2C84DAEDD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>